--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanha2\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Tasks</t>
   </si>
@@ -48,12 +43,24 @@
   </si>
   <si>
     <t>Juan Hernández</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocking Camera </t>
+  </si>
+  <si>
+    <t>Xavier Trillo</t>
+  </si>
+  <si>
+    <t>0 hours and 15 minutes</t>
+  </si>
+  <si>
+    <t>0 hours and 30 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -213,7 +220,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -390,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:E8"/>
+  <dimension ref="B5:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,6 +450,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martitg\Documents\GitHub\Arial--Comic-Sans--Dealers\ExcelTasks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Tasks</t>
   </si>
@@ -55,12 +60,18 @@
   </si>
   <si>
     <t>0 hours and 30 minutes</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>1 week aproximately ( day up, day down)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,7 +408,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,19 +419,19 @@
   <dimension ref="B5:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,7 +445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -442,15 +453,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>8</v>
       </c>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martitg\Documents\GitHub\Arial--Comic-Sans--Dealers\ExcelTasks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Tasks</t>
   </si>
@@ -66,12 +61,27 @@
   </si>
   <si>
     <t>1 week aproximately ( day up, day down)</t>
+  </si>
+  <si>
+    <t>Basic Movement</t>
+  </si>
+  <si>
+    <t>1 hour and 30 minutes</t>
+  </si>
+  <si>
+    <t>Smoth Animations</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>Collision Boxes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,21 +426,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:E9"/>
+  <dimension ref="B5:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -445,7 +455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -453,7 +463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -467,7 +477,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -478,6 +488,48 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
         <v>11</v>
       </c>
     </row>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974A1311-7436-40FC-A585-C7ACD2A0BB0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Tasks</t>
   </si>
@@ -76,12 +82,24 @@
   </si>
   <si>
     <t>Collision Boxes</t>
+  </si>
+  <si>
+    <t>Camera movement</t>
+  </si>
+  <si>
+    <t>Adria Avila</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -418,18 +436,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B5:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +551,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974A1311-7436-40FC-A585-C7ACD2A0BB0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E40513-C9A6-4312-869E-ECCA89B9DF31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Tasks</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t xml:space="preserve">1 hour </t>
+  </si>
+  <si>
+    <t>Player 2 movement</t>
+  </si>
+  <si>
+    <t>Multiple input reading</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
   </si>
 </sst>
 </file>
@@ -444,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:E13"/>
+  <dimension ref="B5:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,6 +574,34 @@
         <v>21</v>
       </c>
     </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E40513-C9A6-4312-869E-ECCA89B9DF31}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Tasks</t>
   </si>
@@ -103,12 +97,24 @@
   </si>
   <si>
     <t>30 minutes</t>
+  </si>
+  <si>
+    <t>Back and Forw Jump</t>
+  </si>
+  <si>
+    <t>Neutral Jump Smooth</t>
+  </si>
+  <si>
+    <t>0 hours and 45 minutes</t>
+  </si>
+  <si>
+    <t>1 hour and 45 minutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,18 +451,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,6 +608,34 @@
         <v>21</v>
       </c>
     </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37631909-816C-42FD-B72E-262E68ADD2EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Tasks</t>
   </si>
@@ -109,12 +115,18 @@
   </si>
   <si>
     <t>1 hour and 45 minutes</t>
+  </si>
+  <si>
+    <t>Countdown timer</t>
+  </si>
+  <si>
+    <t>Players movement limits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,26 +463,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:E17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B5:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="2:5" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -636,6 +648,34 @@
         <v>29</v>
       </c>
     </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Arial--Comic-Sans--Dealers\ExcelTasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37631909-816C-42FD-B72E-262E68ADD2EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBF7353-19FA-4F01-8E58-82027DD5C824}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
   <si>
     <t>Tasks</t>
   </si>
@@ -66,9 +66,6 @@
     <t>2 hours</t>
   </si>
   <si>
-    <t>1 week aproximately ( day up, day down)</t>
-  </si>
-  <si>
     <t>Basic Movement</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Player 2 movement</t>
   </si>
   <si>
-    <t>Multiple input reading</t>
-  </si>
-  <si>
     <t>30 minutes</t>
   </si>
   <si>
@@ -117,10 +111,55 @@
     <t>1 hour and 45 minutes</t>
   </si>
   <si>
-    <t>Countdown timer</t>
-  </si>
-  <si>
     <t>Players movement limits</t>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <t>Collisions Boxes for attacks</t>
+  </si>
+  <si>
+    <t>Remake Player 2 movement with states and inputs</t>
+  </si>
+  <si>
+    <t>2 hours and 30 minutes</t>
+  </si>
+  <si>
+    <t>Added reset player sistem for multiple rounds</t>
+  </si>
+  <si>
+    <t>1 hours</t>
+  </si>
+  <si>
+    <t>Game transcitions</t>
+  </si>
+  <si>
+    <t>Win / lose Conidtion</t>
+  </si>
+  <si>
+    <t>Added flipped animations for player 2</t>
+  </si>
+  <si>
+    <t>2hours</t>
+  </si>
+  <si>
+    <t>Updated Camera movement and reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed neutral punch jump animation </t>
+  </si>
+  <si>
+    <t>45 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed Scene transcitions </t>
+  </si>
+  <si>
+    <t>Added Collisions cases for movement and attacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added damage </t>
   </si>
 </sst>
 </file>
@@ -471,15 +510,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:E19"/>
+  <dimension ref="B5:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" customWidth="1"/>
@@ -507,6 +546,12 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -516,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -538,13 +583,13 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -552,7 +597,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -561,12 +606,12 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -580,100 +625,226 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
         <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
-        <v>17</v>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Arial--Comic-Sans--Dealers\ExcelTasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBF7353-19FA-4F01-8E58-82027DD5C824}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06370D7D-25BE-454C-BF74-DAC2B224D37F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
   <si>
     <t>Tasks</t>
   </si>
@@ -144,9 +144,6 @@
     <t>2hours</t>
   </si>
   <si>
-    <t>Updated Camera movement and reset</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fixed neutral punch jump animation </t>
   </si>
   <si>
@@ -160,6 +157,18 @@
   </si>
   <si>
     <t xml:space="preserve">Added damage </t>
+  </si>
+  <si>
+    <t>Updated Camera movement and reset camera</t>
+  </si>
+  <si>
+    <t>Death animation</t>
+  </si>
+  <si>
+    <t>4 hours</t>
+  </si>
+  <si>
+    <t>Round points</t>
   </si>
 </sst>
 </file>
@@ -510,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:E28"/>
+  <dimension ref="B5:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="I18" sqref="I18:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +643,7 @@
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -779,7 +788,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -793,7 +802,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
@@ -802,12 +811,12 @@
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -821,7 +830,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -835,7 +844,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -845,6 +854,34 @@
       </c>
       <c r="E28" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Arial--Comic-Sans--Dealers\ExcelTasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06370D7D-25BE-454C-BF74-DAC2B224D37F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9E85CA-7D3D-44A0-9891-2CC3D89FE3E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
   <si>
     <t>Tasks</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Round points</t>
+  </si>
+  <si>
+    <t>UI Counter with Module Font</t>
   </si>
 </sst>
 </file>
@@ -519,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:E30"/>
+  <dimension ref="B5:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I19"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,6 +887,20 @@
         <v>23</v>
       </c>
     </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Arial--Comic-Sans--Dealers\ExcelTasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9E85CA-7D3D-44A0-9891-2CC3D89FE3E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66606F87-F7F0-4D1A-B248-F91BFC273DA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
   <si>
     <t>Tasks</t>
   </si>
@@ -138,9 +144,6 @@
     <t>Win / lose Conidtion</t>
   </si>
   <si>
-    <t>Added flipped animations for player 2</t>
-  </si>
-  <si>
     <t>2hours</t>
   </si>
   <si>
@@ -153,9 +156,6 @@
     <t xml:space="preserve">Fixed Scene transcitions </t>
   </si>
   <si>
-    <t>Added Collisions cases for movement and attacks</t>
-  </si>
-  <si>
     <t xml:space="preserve">Added damage </t>
   </si>
   <si>
@@ -172,13 +172,91 @@
   </si>
   <si>
     <t>UI Counter with Module Font</t>
+  </si>
+  <si>
+    <t>Martí</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Adria</t>
+  </si>
+  <si>
+    <t>Xavier</t>
+  </si>
+  <si>
+    <t>Total estimation time</t>
+  </si>
+  <si>
+    <t>Jump punch</t>
+  </si>
+  <si>
+    <t>Module Font and Counter</t>
+  </si>
+  <si>
+    <t>Collisions cases for movement and attacks</t>
+  </si>
+  <si>
+    <t>flipped animations for player 2</t>
+  </si>
+  <si>
+    <t>Updated Win / Lose ocndition with Dead conditions</t>
+  </si>
+  <si>
+    <t>Added multiple round reset system</t>
+  </si>
+  <si>
+    <t>Added Jump punch animations</t>
+  </si>
+  <si>
+    <t>1  hour</t>
+  </si>
+  <si>
+    <t>Health Bars</t>
+  </si>
+  <si>
+    <t>2 hours and 15 minutes</t>
+  </si>
+  <si>
+    <t>Added multiple sounds</t>
+  </si>
+  <si>
+    <t>4 hour and 15 minutes</t>
+  </si>
+  <si>
+    <t>21 hours</t>
+  </si>
+  <si>
+    <t>14 hours</t>
+  </si>
+  <si>
+    <t>9 hours</t>
+  </si>
+  <si>
+    <t>8,5 hours</t>
+  </si>
+  <si>
+    <t>27 hours</t>
+  </si>
+  <si>
+    <t>7 hours</t>
+  </si>
+  <si>
+    <t>13 hours</t>
+  </si>
+  <si>
+    <t>3 hour</t>
+  </si>
+  <si>
+    <t>20,5 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +272,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +290,29 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,17 +341,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:E31"/>
+  <dimension ref="B5:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,10 +655,12 @@
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:5" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,355 +673,495 @@
       <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E16" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
+        <v>56</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D21" t="s">
-        <v>12</v>
+      <c r="D21" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
+        <v>60</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D24" t="s">
-        <v>14</v>
+      <c r="D24" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>16</v>
+        <v>33</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
         <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
+        <v>55</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Arial--Comic-Sans--Dealers\ExcelTasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66606F87-F7F0-4D1A-B248-F91BFC273DA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7171788-4F4B-44E1-BD4A-A76E131C93A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
   <si>
     <t>Tasks</t>
   </si>
@@ -171,9 +170,6 @@
     <t>Round points</t>
   </si>
   <si>
-    <t>UI Counter with Module Font</t>
-  </si>
-  <si>
     <t>Martí</t>
   </si>
   <si>
@@ -192,9 +188,6 @@
     <t>Jump punch</t>
   </si>
   <si>
-    <t>Module Font and Counter</t>
-  </si>
-  <si>
     <t>Collisions cases for movement and attacks</t>
   </si>
   <si>
@@ -231,9 +224,6 @@
     <t>14 hours</t>
   </si>
   <si>
-    <t>9 hours</t>
-  </si>
-  <si>
     <t>8,5 hours</t>
   </si>
   <si>
@@ -250,6 +240,21 @@
   </si>
   <si>
     <t>20,5 hours</t>
+  </si>
+  <si>
+    <t>UI Counter</t>
+  </si>
+  <si>
+    <t>Module Font</t>
+  </si>
+  <si>
+    <t>Selection Screen</t>
+  </si>
+  <si>
+    <t>11,5 hours</t>
+  </si>
+  <si>
+    <t>Input update multiple players</t>
   </si>
 </sst>
 </file>
@@ -345,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -362,6 +367,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -643,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:I38"/>
+  <dimension ref="B5:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>3</v>
@@ -694,13 +703,13 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -717,13 +726,13 @@
         <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -740,75 +749,75 @@
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>66</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
+        <v>70</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
+        <v>74</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -816,91 +825,91 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>7</v>
@@ -909,130 +918,130 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D22" t="s">
-        <v>59</v>
+      <c r="D22" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
@@ -1040,77 +1049,77 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
         <v>23</v>
-      </c>
-      <c r="E31" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>6</v>
@@ -1124,13 +1133,13 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -1138,13 +1147,13 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
         <v>20</v>
@@ -1152,16 +1161,44 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7171788-4F4B-44E1-BD4A-A76E131C93A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0926F551-D41B-4080-89E2-642D6B4C38F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
   <si>
     <t>Tasks</t>
   </si>
@@ -230,9 +230,6 @@
     <t>27 hours</t>
   </si>
   <si>
-    <t>7 hours</t>
-  </si>
-  <si>
     <t>13 hours</t>
   </si>
   <si>
@@ -251,10 +248,19 @@
     <t>Selection Screen</t>
   </si>
   <si>
-    <t>11,5 hours</t>
-  </si>
-  <si>
     <t>Input update multiple players</t>
+  </si>
+  <si>
+    <t>Start Game Animations</t>
+  </si>
+  <si>
+    <t>Welcome page animations</t>
+  </si>
+  <si>
+    <t>10,5 hours</t>
+  </si>
+  <si>
+    <t>16 hours</t>
   </si>
 </sst>
 </file>
@@ -652,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:I40"/>
+  <dimension ref="B5:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +738,7 @@
         <v>63</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -752,15 +758,15 @@
         <v>48</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
@@ -778,12 +784,12 @@
         <v>64</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>19</v>
@@ -797,7 +803,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>19</v>
@@ -811,63 +817,63 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
+        <v>73</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
+        <v>74</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>11</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>9</v>
@@ -876,68 +882,68 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>7</v>
@@ -946,110 +952,110 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D25" t="s">
-        <v>57</v>
+      <c r="D25" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
         <v>16</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>20</v>
+      <c r="D27" t="s">
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>6</v>
@@ -1058,146 +1064,174 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E42" t="s">
         <v>20</v>
       </c>
     </row>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0926F551-D41B-4080-89E2-642D6B4C38F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B78FB4-40FF-4A50-AFD6-0F359B780318}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="78">
   <si>
     <t>Tasks</t>
   </si>
@@ -254,13 +254,16 @@
     <t>Start Game Animations</t>
   </si>
   <si>
-    <t>Welcome page animations</t>
-  </si>
-  <si>
-    <t>10,5 hours</t>
-  </si>
-  <si>
-    <t>16 hours</t>
+    <t>Intro animations</t>
+  </si>
+  <si>
+    <t>11,5 hours</t>
+  </si>
+  <si>
+    <t>17 hours</t>
+  </si>
+  <si>
+    <t>Update Win/Lose scenes</t>
   </si>
 </sst>
 </file>
@@ -658,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:I42"/>
+  <dimension ref="B5:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,49 +848,49 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
+        <v>77</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>9</v>
@@ -896,12 +899,12 @@
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>9</v>
@@ -910,82 +913,82 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
         <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>7</v>
@@ -994,166 +997,166 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D27" t="s">
-        <v>57</v>
+      <c r="D27" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>16</v>
+      <c r="D28" t="s">
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>6</v>
@@ -1162,26 +1165,26 @@
         <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>6</v>
@@ -1190,48 +1193,62 @@
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>20</v>
       </c>
     </row>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri\Documents\GitHub\Arial--Comic-Sans--Dealers\ExcelTasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B78FB4-40FF-4A50-AFD6-0F359B780318}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8968EC-B513-46F2-93D5-8B377B20FA3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
   <si>
     <t>Tasks</t>
   </si>
@@ -257,13 +252,16 @@
     <t>Intro animations</t>
   </si>
   <si>
-    <t>11,5 hours</t>
-  </si>
-  <si>
-    <t>17 hours</t>
-  </si>
-  <si>
     <t>Update Win/Lose scenes</t>
+  </si>
+  <si>
+    <t>Player1/Player2 scores</t>
+  </si>
+  <si>
+    <t>14,5 hours</t>
+  </si>
+  <si>
+    <t>20 hours</t>
   </si>
 </sst>
 </file>
@@ -661,24 +659,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:I43"/>
+  <dimension ref="B5:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,7 +696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -721,7 +719,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -744,7 +742,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -761,13 +759,13 @@
         <v>48</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>69</v>
       </c>
@@ -790,7 +788,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>71</v>
       </c>
@@ -804,7 +802,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>72</v>
       </c>
@@ -818,7 +816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>73</v>
       </c>
@@ -832,7 +830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>74</v>
       </c>
@@ -846,9 +844,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>19</v>
@@ -860,51 +858,51 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>8</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>9</v>
@@ -913,12 +911,12 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>9</v>
@@ -927,82 +925,82 @@
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>4</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>35</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
         <v>14</v>
       </c>
-      <c r="E24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>7</v>
@@ -1011,166 +1009,166 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D28" t="s">
-        <v>57</v>
+      <c r="D28" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>16</v>
+      <c r="D29" t="s">
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>6</v>
@@ -1179,26 +1177,26 @@
         <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>6</v>
@@ -1207,48 +1205,62 @@
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>20</v>
       </c>
     </row>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri\Documents\GitHub\Arial--Comic-Sans--Dealers\ExcelTasks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8968EC-B513-46F2-93D5-8B377B20FA3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
   <si>
     <t>Tasks</t>
   </si>
@@ -219,15 +213,9 @@
     <t>14 hours</t>
   </si>
   <si>
-    <t>8,5 hours</t>
-  </si>
-  <si>
     <t>27 hours</t>
   </si>
   <si>
-    <t>13 hours</t>
-  </si>
-  <si>
     <t>3 hour</t>
   </si>
   <si>
@@ -262,13 +250,28 @@
   </si>
   <si>
     <t>20 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalshim Stage </t>
+  </si>
+  <si>
+    <t>Title Screen and Character Selection Sound Effects</t>
+  </si>
+  <si>
+    <t>2 houts</t>
+  </si>
+  <si>
+    <t>10 hours</t>
+  </si>
+  <si>
+    <t>19 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,7 +383,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -651,32 +654,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:I44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B5:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="46.36328125" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" customWidth="1"/>
+    <col min="5" max="5" width="38.6328125" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" ht="15" thickBot="1"/>
+    <row r="6" spans="2:9" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -716,10 +719,10 @@
         <v>62</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -739,10 +742,10 @@
         <v>63</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -759,15 +762,15 @@
         <v>48</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
@@ -782,15 +785,15 @@
         <v>49</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>19</v>
@@ -802,9 +805,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9">
       <c r="B12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>19</v>
@@ -816,9 +819,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9">
       <c r="B13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>
@@ -830,9 +833,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9">
       <c r="B14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
@@ -844,9 +847,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>19</v>
@@ -858,9 +861,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9">
       <c r="B16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>19</v>
@@ -872,7 +875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5">
       <c r="B17" t="s">
         <v>8</v>
       </c>
@@ -886,7 +889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -900,7 +903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5">
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -914,7 +917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -928,7 +931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -942,7 +945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5">
       <c r="B22" t="s">
         <v>24</v>
       </c>
@@ -956,51 +959,51 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5">
       <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
         <v>4</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>42</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>7</v>
@@ -1009,110 +1012,110 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D29" t="s">
-        <v>57</v>
+      <c r="D29" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" t="s">
         <v>16</v>
       </c>
-      <c r="E30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+    <row r="34" spans="2:5">
+      <c r="B34" t="s">
         <v>5</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>31</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>6</v>
@@ -1121,146 +1124,174 @@
         <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
       <c r="B41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
       <c r="B42" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
       <c r="B43" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
       <c r="B44" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E46" t="s">
         <v>20</v>
       </c>
     </row>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCERO\Desktop\Arial--Comic-Sans--Dealers\ExcelTasks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
   <si>
     <t>Tasks</t>
   </si>
@@ -51,9 +56,6 @@
     <t>Xavier Trillo</t>
   </si>
   <si>
-    <t>0 hours and 15 minutes</t>
-  </si>
-  <si>
     <t>0 hours and 30 minutes</t>
   </si>
   <si>
@@ -255,23 +257,32 @@
     <t xml:space="preserve">Dalshim Stage </t>
   </si>
   <si>
-    <t>Title Screen and Character Selection Sound Effects</t>
-  </si>
-  <si>
     <t>2 houts</t>
   </si>
   <si>
     <t>10 hours</t>
   </si>
   <si>
-    <t>19 hours</t>
+    <t>Title Screen and Character Selection Sounds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 hours </t>
+  </si>
+  <si>
+    <t>Player 1 Score Fixes And Sound Effects</t>
+  </si>
+  <si>
+    <t>Player 2 Score Fixes And Sound Efects</t>
+  </si>
+  <si>
+    <t>21,5 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,7 +394,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Buena" xfId="1" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -654,32 +665,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:I46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.36328125" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="38.6328125" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="22.36328125" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15" thickBot="1"/>
-    <row r="6" spans="2:9" ht="18" customHeight="1" thickBot="1">
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,189 +704,189 @@
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" t="s">
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="8" t="s">
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="E16" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>8</v>
       </c>
@@ -886,413 +897,441 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" t="s">
-        <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" t="s">
-        <v>17</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>4</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" t="s">
-        <v>42</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D31" t="s">
-        <v>57</v>
+      <c r="D31" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>20</v>
+      <c r="D33" t="s">
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>5</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" t="s">
-        <v>31</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUCERO\Desktop\Arial--Comic-Sans--Dealers\ExcelTasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8002B20-ED10-407A-BD56-0C5720F921C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="86">
   <si>
     <t>Tasks</t>
   </si>
@@ -248,12 +249,6 @@
     <t>Player1/Player2 scores</t>
   </si>
   <si>
-    <t>14,5 hours</t>
-  </si>
-  <si>
-    <t>20 hours</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dalshim Stage </t>
   </si>
   <si>
@@ -276,12 +271,24 @@
   </si>
   <si>
     <t>21,5 hours</t>
+  </si>
+  <si>
+    <t>Scores UI update</t>
+  </si>
+  <si>
+    <t>Web Page</t>
+  </si>
+  <si>
+    <t>Bug Corrections</t>
+  </si>
+  <si>
+    <t>22,5 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -672,11 +679,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:I48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B5:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,10 +780,10 @@
         <v>47</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -796,10 +803,10 @@
         <v>48</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -888,27 +895,27 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>10</v>
+        <v>82</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>13</v>
+        <v>83</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -916,21 +923,21 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>10</v>
+        <v>84</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>9</v>
@@ -944,49 +951,49 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>9</v>
@@ -995,32 +1002,32 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
         <v>43</v>
@@ -1028,63 +1035,63 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>7</v>
+        <v>77</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>7</v>
+        <v>79</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>7</v>
+        <v>80</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>7</v>
@@ -1093,130 +1100,130 @@
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D33" t="s">
-        <v>56</v>
+      <c r="D33" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>19</v>
+        <v>55</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -1224,77 +1231,77 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
         <v>22</v>
-      </c>
-      <c r="E42" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>6</v>
@@ -1308,13 +1315,13 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -1322,15 +1329,57 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E51" t="s">
         <v>19</v>
       </c>
     </row>

--- a/ExcelTasks/TasksExcel.xlsx
+++ b/ExcelTasks/TasksExcel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanh\Desktop\Arial--Comic-Sans--Dealers\ExcelTasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8002B20-ED10-407A-BD56-0C5720F921C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="122">
   <si>
     <t>Tasks</t>
   </si>
@@ -96,9 +95,6 @@
     <t>30 minutes</t>
   </si>
   <si>
-    <t>Back and Forw Jump</t>
-  </si>
-  <si>
     <t>Neutral Jump Smooth</t>
   </si>
   <si>
@@ -270,26 +266,137 @@
     <t>Player 2 Score Fixes And Sound Efects</t>
   </si>
   <si>
-    <t>21,5 hours</t>
-  </si>
-  <si>
     <t>Scores UI update</t>
   </si>
   <si>
-    <t>Web Page</t>
-  </si>
-  <si>
     <t>Bug Corrections</t>
   </si>
   <si>
-    <t>22,5 hours</t>
+    <t>Intro scene</t>
+  </si>
+  <si>
+    <t>8 hours</t>
+  </si>
+  <si>
+    <t>Character selection</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Combo module</t>
+  </si>
+  <si>
+    <t>6 hours</t>
+  </si>
+  <si>
+    <t>GamePad functionality</t>
+  </si>
+  <si>
+    <t>Added all animations</t>
+  </si>
+  <si>
+    <t>Particles added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input buffering </t>
+  </si>
+  <si>
+    <t>Continue scene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colliders </t>
+  </si>
+  <si>
+    <t>GodMode function</t>
+  </si>
+  <si>
+    <t>Win/Lose condition redone</t>
+  </si>
+  <si>
+    <t>Slowdown and camerashake</t>
+  </si>
+  <si>
+    <t>Redo other teammates tasks</t>
+  </si>
+  <si>
+    <t>Redo other teammate's tasks</t>
+  </si>
+  <si>
+    <t>solving bugs</t>
+  </si>
+  <si>
+    <t>Solving bugs</t>
+  </si>
+  <si>
+    <t>Photoshop sprites</t>
+  </si>
+  <si>
+    <t>13 hours</t>
+  </si>
+  <si>
+    <t>18 hours</t>
+  </si>
+  <si>
+    <t>24 hours</t>
+  </si>
+  <si>
+    <t>5,5 hours</t>
+  </si>
+  <si>
+    <t>14,75 hours</t>
+  </si>
+  <si>
+    <t>9 hours</t>
+  </si>
+  <si>
+    <t>7 hours</t>
+  </si>
+  <si>
+    <t>8,5 hours</t>
+  </si>
+  <si>
+    <t>15 hours</t>
+  </si>
+  <si>
+    <t>20 hours</t>
+  </si>
+  <si>
+    <t>16 hours</t>
+  </si>
+  <si>
+    <t>49,5 hours</t>
+  </si>
+  <si>
+    <t>76 hours</t>
+  </si>
+  <si>
+    <t>43 hours</t>
+  </si>
+  <si>
+    <t>64 hours</t>
+  </si>
+  <si>
+    <t>63,5 hours</t>
+  </si>
+  <si>
+    <t>103 hours</t>
+  </si>
+  <si>
+    <t>31 hours</t>
+  </si>
+  <si>
+    <t>94 hours</t>
+  </si>
+  <si>
+    <t>27,75 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,8 +419,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,8 +464,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -373,25 +493,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
@@ -399,9 +523,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,6 +554,151 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1882588</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14545235" y="2073089"/>
+          <a:ext cx="1759324" cy="974911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2800"/>
+            <a:t>PRIMERA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2800" baseline="0"/>
+            <a:t> ENTREGA</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1949823</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14567647" y="3429000"/>
+          <a:ext cx="1804147" cy="1109382"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2800"/>
+            <a:t>SEGUNDA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2800" baseline="0"/>
+            <a:t> ENTREGA</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -460,7 +744,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -495,7 +779,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -679,11 +963,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,621 +976,665 @@
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+    <row r="2" spans="2:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="13"/>
+      <c r="H2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>15</v>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>22</v>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>19</v>
+      <c r="D16" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="12">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="9" t="s">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="D30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>11</v>
+      <c r="D34" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>22</v>
+      <c r="D35" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D36" t="s">
-        <v>56</v>
+      <c r="D36" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
         <v>15</v>
-      </c>
-      <c r="E37" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>19</v>
+      <c r="D38" t="s">
+        <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E46" t="s">
@@ -1315,76 +1643,351 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="C58" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E62" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>